--- a/Testcase Generate from Gitlab/input/config.xlsx
+++ b/Testcase Generate from Gitlab/input/config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\RPA\RPA-Generate-Testcase-From-Gitlab\Testcase Generate from Gitlab\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="17235" windowHeight="8520"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="17240" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -25,142 +30,16 @@
     <t>Note</t>
   </si>
   <si>
-    <t>NumbDate</t>
-  </si>
-  <si>
-    <t>hang2</t>
-  </si>
-  <si>
-    <t>123456//</t>
-  </si>
-  <si>
-    <t>Số ngày để chọn Date Start tính từ thời điểm hiện tại</t>
-  </si>
-  <si>
-    <t>Tên tài khoản đăng nhập Infornexus.com</t>
-  </si>
-  <si>
-    <t>Mật khẩu đăng nhập Infornexus.com</t>
-  </si>
-  <si>
-    <t>Mật khẩu SAP để upload file ClassCode, LeadTime, Dummy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ví trí đặt thư mục Output </t>
-  </si>
-  <si>
-    <t>OutputFolder</t>
-  </si>
-  <si>
-    <t>SAPPassword</t>
-  </si>
-  <si>
-    <t>InfornexusAccount</t>
-  </si>
-  <si>
-    <t>InfornexusPassword</t>
-  </si>
-  <si>
-    <t>autoExportNewArtFile</t>
-  </si>
-  <si>
-    <t>Cho phép xuất file excel new article tự động</t>
-  </si>
-  <si>
-    <t>autoExportOldArtFile</t>
-  </si>
-  <si>
-    <t>Cho phép xuất file text old article tự động</t>
-  </si>
-  <si>
-    <t>excelFileToUploadSAP</t>
-  </si>
-  <si>
-    <t>txtFileToUploadSAP</t>
-  </si>
-  <si>
-    <t>Tên file New Article upload to SAP</t>
-  </si>
-  <si>
-    <t>Tên file Old Article upload to SAP</t>
-  </si>
-  <si>
-    <t>newArticleUploadSAP.xls</t>
-  </si>
-  <si>
-    <t>oldArticleUploadSAP.txt</t>
-  </si>
-  <si>
-    <t>excelFileCWAstatus</t>
-  </si>
-  <si>
-    <t>excelFileCutOffOrder</t>
-  </si>
-  <si>
-    <t>excelFileHoldingPO</t>
-  </si>
-  <si>
-    <t>CWA status SS21.xlsx</t>
-  </si>
-  <si>
-    <t>Holding PO.xlsx</t>
-  </si>
-  <si>
-    <t>Tên file Check Art Mới</t>
-  </si>
-  <si>
-    <t>Tên file Holding PO</t>
-  </si>
-  <si>
-    <t>excelFileNewCheckArt</t>
-  </si>
-  <si>
-    <t>Tên file Thông tin Art</t>
-  </si>
-  <si>
-    <t>CHECK Art- moi.xlsb</t>
-  </si>
-  <si>
-    <t>Tên file HSGroup</t>
-  </si>
-  <si>
-    <t>IsUpdateSAP</t>
-  </si>
-  <si>
-    <t>Cho phép Cập nhật lên SAP: ClassCode, Dummy, LeadTime</t>
-  </si>
-  <si>
-    <t>excelPORelease</t>
-  </si>
-  <si>
-    <t>PO release.xlsx</t>
-  </si>
-  <si>
-    <t>File convert đã cập nhật cho qui trình rút gọn</t>
-  </si>
-  <si>
-    <t>SheetDummyCoop</t>
-  </si>
-  <si>
-    <t>dummy lam co-op</t>
-  </si>
-  <si>
-    <t>Sheet Dummy hoặc MCAF</t>
-  </si>
-  <si>
-    <t>alise</t>
-  </si>
-  <si>
-    <t>Password Assign Relationship Dummy</t>
-  </si>
-  <si>
-    <t>AssignDummyPassword</t>
-  </si>
-  <si>
-    <t>Template Schedule HSGroup.xlsx</t>
-  </si>
-  <si>
-    <t>D:\Sale_Order_Report\SaleOrderReport-RPA-Version.1\output</t>
+    <t>v_Project</t>
+  </si>
+  <si>
+    <t>v_GitlabProjectUrl</t>
+  </si>
+  <si>
+    <t>https://git.iptp.net/erp/erp-server/-/issues</t>
+  </si>
+  <si>
+    <t>erp-server</t>
   </si>
 </sst>
 </file>
@@ -204,15 +83,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -275,7 +151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,7 +186,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,215 +395,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.1796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2">
-        <v>123456</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Testcase Generate from Gitlab/input/config.xlsx
+++ b/Testcase Generate from Gitlab/input/config.xlsx
@@ -13,40 +13,71 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Note</t>
   </si>
   <si>
-    <t>v_Project</t>
-  </si>
-  <si>
-    <t>v_GitlabProjectUrl</t>
-  </si>
-  <si>
-    <t>https://git.iptp.net/erp/erp-server/-/issues</t>
-  </si>
-  <si>
     <t>erp-server</t>
+  </si>
+  <si>
+    <t>https://git.iptp.net/erp/erp-web/-/issues</t>
+  </si>
+  <si>
+    <t>erp-web</t>
+  </si>
+  <si>
+    <t>ERP web project</t>
+  </si>
+  <si>
+    <t>URL to Erp Web Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://git.iptp.net/erp/erp-server/-/issues </t>
+  </si>
+  <si>
+    <t>https://git.iptp.net/xm/xm-web/-/issues</t>
+  </si>
+  <si>
+    <t>https://git.iptp.net/andre/xm-api/-/issues</t>
+  </si>
+  <si>
+    <t>xm-api</t>
+  </si>
+  <si>
+    <t>xm-web</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Erp Server Project</t>
+  </si>
+  <si>
+    <t>Erp Web Project</t>
+  </si>
+  <si>
+    <t>XM Web Project</t>
+  </si>
+  <si>
+    <t>XM API Project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +89,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,10 +119,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -91,8 +131,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -395,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -410,33 +454,79 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Testcase Generate from Gitlab/input/config.xlsx
+++ b/Testcase Generate from Gitlab/input/config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Note</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t>erp-web</t>
-  </si>
-  <si>
-    <t>ERP web project</t>
-  </si>
-  <si>
-    <t>URL to Erp Web Project</t>
   </si>
   <si>
     <t xml:space="preserve">https://git.iptp.net/erp/erp-server/-/issues </t>
@@ -442,7 +436,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,10 +448,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -468,10 +462,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -482,29 +476,29 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
